--- a/paqc/data/Status_QC.xlsx
+++ b/paqc/data/Status_QC.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18828"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7221D94A-A9C1-46A0-9FE3-E0BA899DC3A7}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C879E2D-BE07-49EC-A173-3854EDD0C8C4}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>All</t>
+    <t>General</t>
   </si>
   <si>
     <t>Testing if all column names of dataframe have no special characters and no
@@ -61,9 +61,6 @@
     <t>Not needed anymore, happens at read in of data.</t>
   </si>
   <si>
-    <t xml:space="preserve">All </t>
-  </si>
-  <si>
     <t>All columns ending in FLAG, COUNT or FREQ should be 0 or positive, and never missing. </t>
   </si>
   <si>
@@ -110,7 +107,7 @@
 date and first exposure date are on different days.</t>
   </si>
   <si>
-    <t>Get rid of it?</t>
+    <t>SLIGHTLY ALTERED: Checks that when first exposure date is before last exposure date, the count for that feature is bigger than 1.</t>
   </si>
   <si>
     <t>No missing patient IDs</t>
@@ -184,7 +181,7 @@
 90 days different. </t>
   </si>
   <si>
-    <t xml:space="preserve">Every patient in CN01 should meet the stratification criteria, CC01_CS. </t>
+    <t>Every patient in CN01 should meet the stratification criteria, CC01_CS. </t>
   </si>
   <si>
     <t>no CC01_CS criteria yet</t>
@@ -209,12 +206,6 @@
     <t>CS04</t>
   </si>
   <si>
-    <t xml:space="preserve">Dataset has NO patients in it who meet at least one of the selection criteria listed in CC01_CP </t>
-  </si>
-  <si>
-    <t>relevant columns are not kept in this dataset</t>
-  </si>
-  <si>
     <t>Flag proportions table</t>
   </si>
   <si>
@@ -226,6 +217,9 @@
   </si>
   <si>
     <t>Every row should have a unique description. There should be no duplicate descriptions</t>
+  </si>
+  <si>
+    <t>Compare</t>
   </si>
   <si>
     <t>Two dataframes have the same columns and they are in the same order.
@@ -322,13 +316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,13 +339,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -365,18 +358,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,18 +674,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDF6A8D-1A12-48F1-9316-F02087B8D189}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{A30CB92B-A4F5-5BD0-BB60-1F08E341DEA8}">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0" xr3:uid="{A30CB92B-A4F5-5BD0-BB60-1F08E341DEA8}">
+      <selection activeCell="B40" sqref="B40:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" customWidth="1"/>
-    <col min="7" max="7" width="55.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="77.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -734,19 +728,19 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
       <c r="G3" t="s">
         <v>13</v>
       </c>
@@ -755,11 +749,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -767,7 +761,7 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
@@ -777,51 +771,51 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -829,10 +823,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -840,25 +834,25 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="45">
       <c r="A10">
@@ -868,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -876,7 +870,7 @@
       <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
@@ -886,7 +880,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -894,7 +888,7 @@
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="45">
       <c r="A12">
@@ -904,7 +898,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -912,9 +906,9 @@
       <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="60">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="120">
       <c r="A13">
         <v>12</v>
       </c>
@@ -922,7 +916,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -930,27 +924,27 @@
       <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" ht="45">
-      <c r="A14" s="14">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="75">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -961,15 +955,15 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
@@ -979,15 +973,15 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
         <v>30</v>
       </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
@@ -997,15 +991,15 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
@@ -1014,8 +1008,8 @@
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>34</v>
+      <c r="C18" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1023,7 +1017,7 @@
       <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
@@ -1032,8 +1026,8 @@
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>35</v>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1041,7 +1035,7 @@
       <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
@@ -1050,16 +1044,16 @@
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>36</v>
+      <c r="C20" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="A21">
@@ -1068,10 +1062,10 @@
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="4"/>
+      <c r="C21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="45">
       <c r="A22">
@@ -1080,21 +1074,35 @@
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="C23" s="12"/>
-      <c r="F23" s="7"/>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
@@ -1105,334 +1113,328 @@
       <c r="E24" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="60">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="30">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="7"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
+      <c r="C29" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="60">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="2" t="s">
+    </row>
+    <row r="32" spans="1:7" ht="45">
+      <c r="A32" s="12">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="30">
-      <c r="A33" s="14">
-        <v>31</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="15" t="s">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="4"/>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
         <v>54</v>
       </c>
-      <c r="C34" t="s">
+      <c r="F34" s="3"/>
+      <c r="G34" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>57</v>
       </c>
       <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="45">
       <c r="A37">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>58</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="2" t="s">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="F43" s="7"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" ht="45">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="30">
+      <c r="A40">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="30">
+      <c r="A41">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="30">
+      <c r="A42">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="90">
+      <c r="A43">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="30">
       <c r="A44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="45">
+      <c r="A45">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>41</v>
-      </c>
-      <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <v>42</v>
-      </c>
-      <c r="B46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="49" spans="1:6" ht="30">
-      <c r="A49">
-        <v>46</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" ht="30">
-      <c r="A50">
-        <v>47</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" ht="30">
-      <c r="A51">
-        <v>48</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6" ht="90">
-      <c r="A52">
-        <v>49</v>
-      </c>
-      <c r="C52" s="10" t="s">
+      <c r="C45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6" ht="30">
-      <c r="A53">
-        <v>50</v>
-      </c>
-      <c r="C53" s="1" t="s">
+    </row>
+    <row r="46" spans="1:7" ht="45">
+      <c r="C46" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6" ht="45">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="45">
-      <c r="C55" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="93.75" customHeight="1">
-      <c r="C56" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="93.75" customHeight="1">
+      <c r="C47" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G52">
-    <sortCondition ref="A2:A52"/>
+  <sortState ref="A2:G43">
+    <sortCondition ref="A2:A43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/paqc/data/Status_QC.xlsx
+++ b/paqc/data/Status_QC.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18903"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C879E2D-BE07-49EC-A173-3854EDD0C8C4}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7120F72-75CA-431B-82B4-46D78F4906C5}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>Test description</t>
+  </si>
+  <si>
+    <t>Parameters</t>
   </si>
   <si>
     <t>Operates</t>
@@ -58,9 +61,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>Not needed anymore, happens at read in of data.</t>
-  </si>
-  <si>
     <t>All columns ending in FLAG, COUNT or FREQ should be 0 or positive, and never missing. </t>
   </si>
   <si>
@@ -74,11 +74,7 @@
 implement this, Orla suggested: diff(freq_var, count_var/lookback in years) &lt; 0.1 </t>
   </si>
   <si>
-    <t>No columns should be 100% missing. If it’s the case, then all related columns (freq, 
-flag, date diffs) should be deleted too. </t>
-  </si>
-  <si>
-    <t>Did not implemented second part of request, only checking if there are empty columns</t>
+    <t>No columns should be 100% missing.</t>
   </si>
   <si>
     <t>No rows should be 100% missing</t>
@@ -88,26 +84,37 @@
 the gender, target, patient_id or matched_patient_id cols</t>
   </si>
   <si>
-    <t>All first and last exposure dates are before or on the index date (this can be set in config 
-file for example).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All first and last exposure dates are after or on the lookback date. </t>
+    <t>General function to compare chosen date columns with one other date column, it tests if columns_a are &lt;/&lt;=/&gt;=/&gt; column_b, where the comparison operator is defined by the parameter comparison.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keys_columns_a=('first_exp_date_cols')
+comparison='&gt;'
+key_column_b='lookback_date_col'
+axis=0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General function to compare the first_exp_date and last_exp_date columns of chosen criteria (CC01_CP, CC02_CP, CC03_CP, with one other date column. </t>
+  </si>
+  <si>
+    <t>lvl1_desc=1
+comparison='&gt;'
+key_column_b='lookback_date_col'
+axis=0</t>
   </si>
   <si>
     <t>All first exposure dates are before their last exposure date, unless corresponding count=1 in 
 which case they are equal.</t>
   </si>
   <si>
+    <t>multiple_a_day=True</t>
+  </si>
+  <si>
     <t>If you have a non missing value for one of the variable types (flag, counts, freq, dates) for patient 
 A then all corresponding var types should have non-missing entries for that patient. I.e. if there’s a missing first or last exposure date, then the count or frequency must be 0. </t>
   </si>
   <si>
-    <t>If a patient’s count variable is greater than 2 would it be reasonable to expect that last exp 
-date and first exposure date are on different days.</t>
-  </si>
-  <si>
-    <t>SLIGHTLY ALTERED: Checks that when first exposure date is before last exposure date, the count for that feature is bigger than 1.</t>
+    <t xml:space="preserve"> Checks that when first exposure date is before last exposure date, the count for that feature is bigger than 1.</t>
   </si>
   <si>
     <t>No missing patient IDs</t>
@@ -116,32 +123,49 @@
     <t>Test if all numeric columns are actually numeric (if the data comes from csv)</t>
   </si>
   <si>
+    <t>keys_num_cols=('count_cols', 'freq_cols', flag_cols', 'age_col')</t>
+  </si>
+  <si>
     <t>R/C</t>
   </si>
   <si>
     <t>Percentage of missing or zero values should be within a fixed % across the two classes.</t>
   </si>
   <si>
+    <t>max_fraction_diff=0.1</t>
+  </si>
+  <si>
     <t>??</t>
   </si>
   <si>
     <t xml:space="preserve">Gender should either be "F" or "M" only </t>
   </si>
   <si>
-    <t>Patient age should be between 0 and 85 (isn’t 85 too strict, ask Hui)</t>
+    <t>Patient age should be between 0 and 85.</t>
   </si>
   <si>
     <t>Every row should have a valid INDEX_DATE which is after a given date. </t>
+  </si>
+  <si>
+    <t>date_limit='2009-01-01 05:00:00'</t>
   </si>
   <si>
     <t>FREQ variables are calculated by dividing the COUNT by the lookback length in years, 
 not days or months. </t>
   </si>
   <si>
+    <t>lookback_days_col='lookback_dys'
+days_months_years='years'</t>
+  </si>
+  <si>
     <t>The value of the date difference variables are always 0 or positive, and never exceed the 
 lookback length for that patient. </t>
   </si>
   <si>
+    <t>lookback_days_col='lookback_dys'
+ls_dd_columns = ('_DATE_FIRST_LAST', '_DATE_FIRST_INDEX', '_DATE_LAST_INDEX', '_DATE_FIRST_DISEASE', '_DATE_LAST_DISEASE')</t>
+  </si>
+  <si>
     <t>CP01</t>
   </si>
   <si>
@@ -149,6 +173,9 @@
   </si>
   <si>
     <t>INDEX_DT should be strictly before the Disease_FRST_EXP_DT</t>
+  </si>
+  <si>
+    <t>diseasefirstexp_col='diseasefirstexp_dt'</t>
   </si>
   <si>
     <t>Checks that all stratification and custom criteria dates are always between
@@ -161,6 +188,10 @@
     <t>Dataset has NO patients in listed in CP01, check with patient_id</t>
   </si>
   <si>
+    <t>path_file_cp01='data/cp01.csv'
+pat_id_col_cp01='patient_id'</t>
+  </si>
+  <si>
     <t xml:space="preserve">Disease_FRST_EXP_DT is always missing </t>
   </si>
   <si>
@@ -170,40 +201,47 @@
     <t>Number of patients in CN01 = N01_MATCH * Number of patients in CP02</t>
   </si>
   <si>
-    <t>matched</t>
+    <t>path_file_cp02='data/cp02.csv'
+pat_id_col_cp02='patient_id'
+n01_match=100</t>
   </si>
   <si>
     <t>Mean lookback length is the same (within +/- one month) between positive and matched 
 negative patients </t>
   </si>
   <si>
+    <t>path_file_cp02='data/cp02.csv'
+lookback_col_cn01='lookback_dys'
+lookback_col_cp02='lookback_dys'</t>
+  </si>
+  <si>
     <t>Negative patients matched to positive patients must not have a lookback length more than 
 90 days different. </t>
   </si>
   <si>
+    <t> path_file_cp02='data/cp02.csv'
+pat_id_col_cp02='patient_id'
+lookback_col_cn01='lookback_dys'
+lookback_col_cp02='lookback_dys'</t>
+  </si>
+  <si>
     <t>Every patient in CN01 should meet the stratification criteria, CC01_CS. </t>
   </si>
   <si>
-    <t>no CC01_CS criteria yet</t>
-  </si>
-  <si>
-    <t>Every date column in CN01 should be in between  abd including INDEX_DT_CN and 
-LOOKBACK_DT_CN</t>
-  </si>
-  <si>
     <t>CP03</t>
   </si>
   <si>
     <t xml:space="preserve">The value of PREDICTOR_COUNT should never exceed the number of predictors in the file. </t>
   </si>
   <si>
-    <t>predictor_count</t>
-  </si>
-  <si>
     <t>CN03</t>
   </si>
   <si>
     <t>CS04</t>
+  </si>
+  <si>
+    <t>path_file_cp01='data/cp02.csv'
+pat_id_col_cp01='patient_id'</t>
   </si>
   <si>
     <t>Flag proportions table</t>
@@ -213,6 +251,9 @@
 for predictors</t>
   </si>
   <si>
+    <t>ls_metrictypes=('FLAG', 'FREQ', 'COUNT')</t>
+  </si>
+  <si>
     <t xml:space="preserve">There should be no missing values in the entire table. </t>
   </si>
   <si>
@@ -232,6 +273,9 @@
   <si>
     <t>Make sure that the columns that were supposed to remain intact
  (including the patient ID and label columns) are identical between the two versions.</t>
+  </si>
+  <si>
+    <t>ls_colnames=()</t>
   </si>
   <si>
     <t>For each column that has changed calculate and report the min, median, mean and max 
@@ -339,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -363,9 +407,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -674,22 +715,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDF6A8D-1A12-48F1-9316-F02087B8D189}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0" xr3:uid="{A30CB92B-A4F5-5BD0-BB60-1F08E341DEA8}">
-      <selection activeCell="B40" sqref="B40:B45"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0" xr3:uid="{A30CB92B-A4F5-5BD0-BB60-1F08E341DEA8}">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="77.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="70" customWidth="1"/>
+    <col min="3" max="4" width="77.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -711,730 +752,766 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="30">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="45">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6">
-        <v>5</v>
-      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="30">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="30">
+      <c r="D6" s="1"/>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="30">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="45">
+      <c r="F9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="66" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
       <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="60">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="45">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="45">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="120">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="75">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="75">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
         <v>30</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:7">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:7">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D18" s="10"/>
       <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D19" s="10"/>
       <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="30">
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="45">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="45">
+        <v>40</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="45">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="60">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" ht="30">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" t="s">
         <v>16</v>
       </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="30">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
         <v>16</v>
       </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
         <v>16</v>
       </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="45">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="60">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="45">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="60">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="60">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>58</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="30">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="45">
-      <c r="A32" s="12">
-        <v>31</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="13" t="s">
+      <c r="D35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="45">
+      <c r="A36">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" ht="30">
+      <c r="A39">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="45">
+      <c r="A40">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="30">
+      <c r="A41">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" ht="105">
+      <c r="A42">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" ht="30">
+      <c r="A43">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" ht="45">
+      <c r="A44" s="12">
         <v>52</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="45">
-      <c r="A37">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>41</v>
-      </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" ht="30">
-      <c r="A40">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" ht="30">
-      <c r="A41">
-        <v>47</v>
-      </c>
-      <c r="B41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" ht="30">
-      <c r="A42">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" ht="90">
-      <c r="A43">
-        <v>49</v>
-      </c>
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" ht="30">
-      <c r="A44">
-        <v>50</v>
-      </c>
-      <c r="B44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" ht="45">
-      <c r="A45">
-        <v>52</v>
-      </c>
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="45">
-      <c r="C46" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="93.75" customHeight="1">
-      <c r="C47" s="1"/>
-    </row>
+      <c r="B44" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" ht="45">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" ht="93.75" customHeight="1"/>
   </sheetData>
-  <sortState ref="A2:G43">
-    <sortCondition ref="A2:A43"/>
+  <sortState ref="A2:G41">
+    <sortCondition ref="A2:A41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/paqc/data/Status_QC.xlsx
+++ b/paqc/data/Status_QC.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18903"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7120F72-75CA-431B-82B4-46D78F4906C5}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdieleman\Documents\Projects\paqc\paqc\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Suite1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -27,18 +31,6 @@
   </si>
   <si>
     <t>Parameters</t>
-  </si>
-  <si>
-    <t>Operates</t>
-  </si>
-  <si>
-    <t>Coder</t>
-  </si>
-  <si>
-    <t>Progress</t>
-  </si>
-  <si>
-    <t>Comments</t>
   </si>
   <si>
     <t>General</t>
@@ -48,26 +40,10 @@
     spaces. They should only contain letters, numbers and underscores.</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Frederik</t>
-  </si>
-  <si>
-    <t>All date variables, in all cohorts, are in the same format. Not sure how to implement this, 
-but it’s a valid request.</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>All columns ending in FLAG, COUNT or FREQ should be 0 or positive, and never missing. </t>
   </si>
   <si>
     <t>No duplicate patient IDs within the same cohort file.</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>Sanity check frequencies given the denominator in the frequency: not sure how to 
@@ -126,16 +102,10 @@
     <t>keys_num_cols=('count_cols', 'freq_cols', flag_cols', 'age_col')</t>
   </si>
   <si>
-    <t>R/C</t>
-  </si>
-  <si>
     <t>Percentage of missing or zero values should be within a fixed % across the two classes.</t>
   </si>
   <si>
     <t>max_fraction_diff=0.1</t>
-  </si>
-  <si>
-    <t>??</t>
   </si>
   <si>
     <t xml:space="preserve">Gender should either be "F" or "M" only </t>
@@ -295,12 +265,45 @@
     <t xml:space="preserve">List the biggest differences in frequencies between classes take the median, list top 20, with 
 min, max, median in neg and pos </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Make sure date columns are all in the same format.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This is not a QC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but ensured when the data is loaded in. </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,13 +315,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9BBB59"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -339,7 +335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,25 +344,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,34 +361,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,23 +688,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDF6A8D-1A12-48F1-9316-F02087B8D189}">
-  <dimension ref="A1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0" xr3:uid="{A30CB92B-A4F5-5BD0-BB60-1F08E341DEA8}">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="4" width="77.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="70" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="4" width="77.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -743,776 +715,560 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30">
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="45">
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="1"/>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="30">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="66" customHeight="1">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="60">
+    </row>
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="30">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
       <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="45">
+        <v>4</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="45">
+        <v>4</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" ht="30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="30">
+    </row>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" ht="45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" ht="45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="60">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>63</v>
+      <c r="B33" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" ht="30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" ht="45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" ht="30">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" ht="45">
+    </row>
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" ht="30">
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" ht="105">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" ht="30">
+        <v>60</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" ht="45">
-      <c r="A44" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
         <v>52</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:8" ht="45">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="B44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="93.75" customHeight="1"/>
+    <row r="47" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState ref="A2:G41">
     <sortCondition ref="A2:A41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>